--- a/outputVRP.xlsx
+++ b/outputVRP.xlsx
@@ -469,7 +469,7 @@
         <v>41.59833936111112</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -492,7 +492,7 @@
         <v>41.59833936111112</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -509,16 +509,16 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>41.41836894444442</v>
+        <v>41.39483636111103</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -532,16 +532,16 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>41.39389129166659</v>
+        <v>41.39841420833329</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>41.23078383333325</v>
+        <v>41.20249883333317</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -578,16 +578,16 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7">
-        <v>41.23172890277768</v>
+        <v>41.22293963888878</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -598,19 +598,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E8">
-        <v>41.0676493055554</v>
+        <v>41.01016130555532</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -621,19 +621,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E9">
-        <v>41.06266738888874</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -647,16 +647,16 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E10">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -670,16 +670,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -693,16 +693,16 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E12">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -739,16 +739,16 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E14">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -762,16 +762,16 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -785,16 +785,16 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E16">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -808,16 +808,16 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -831,16 +831,16 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -854,16 +854,16 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -877,16 +877,16 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E20">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -900,16 +900,16 @@
         <v>8</v>
       </c>
       <c r="D21">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E21">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -923,16 +923,16 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E22">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -946,16 +946,16 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E23">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -969,16 +969,16 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E24">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -992,16 +992,16 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1015,16 +1015,16 @@
         <v>8</v>
       </c>
       <c r="D26">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E26">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1038,16 +1038,16 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1061,16 +1061,16 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E28">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1084,16 +1084,16 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E29">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1107,16 +1107,16 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E30">
-        <v>41.0676493055554</v>
+        <v>40.91613924999975</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1130,16 +1130,16 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E31">
-        <v>41.0384463055554</v>
+        <v>41.11798161111096</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
